--- a/raw/encuestas.xlsx
+++ b/raw/encuestas.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ignacio\folder_03_other_01_rata-science\proy_01_datavoz_01_taller-r\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\M.ELENA\Desktop\DATAVOZ\Talleres\Talleres_Datavoz\hola-mundo\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF395C7-F4B4-4227-815D-74AD36A7FF49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7AD2373A-86A0-43D3-AC9D-3E4CE4A19328}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="aprobacion" sheetId="1" r:id="rId1"/>
+    <sheet name="respuesta" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="17">
   <si>
     <t>dia</t>
   </si>
@@ -80,11 +80,14 @@
   <si>
     <t>Pulso Ciudadano</t>
   </si>
+  <si>
+    <t>logro</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -429,16 +432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56D8BD8-9D48-41DE-A99E-BAE4AA821D24}">
-  <dimension ref="A1:H167"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E27" sqref="E26:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -464,7 +467,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -475,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>2020</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -498,19 +501,19 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2020</v>
       </c>
       <c r="G3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -521,19 +524,19 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>2020</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -544,19 +547,19 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -567,19 +570,19 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>2019</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -590,19 +593,19 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2019</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -613,19 +616,19 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>2019</v>
       </c>
       <c r="G8">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H8">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -636,19 +639,19 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>2019</v>
       </c>
       <c r="G9">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H9">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -659,19 +662,19 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>2019</v>
       </c>
       <c r="G10">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H10">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -682,19 +685,19 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>2019</v>
       </c>
       <c r="G11">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -705,19 +708,19 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>2019</v>
       </c>
       <c r="G12">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H12">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -728,19 +731,19 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>2019</v>
       </c>
       <c r="G13">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="H13">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -751,19 +754,19 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14">
         <v>2019</v>
       </c>
       <c r="G14">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -774,19 +777,19 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>2019</v>
       </c>
       <c r="G15">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -797,19 +800,19 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>2019</v>
       </c>
       <c r="G16">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H16">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -820,19 +823,19 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G17">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H17">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -843,19 +846,19 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <v>2018</v>
       </c>
       <c r="G18">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -866,19 +869,19 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>2018</v>
       </c>
       <c r="G19">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H19">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -889,19 +892,19 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>2018</v>
       </c>
       <c r="G20">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="H20">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -912,19 +915,19 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>2018</v>
       </c>
       <c r="G21">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -935,7 +938,7 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>2018</v>
@@ -944,10 +947,10 @@
         <v>49</v>
       </c>
       <c r="H22">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -958,19 +961,19 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23">
         <v>2018</v>
       </c>
       <c r="G23">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H23">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -981,19 +984,19 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F24">
         <v>2018</v>
       </c>
       <c r="G24">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H24">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1004,19 +1007,19 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25">
         <v>2018</v>
       </c>
       <c r="G25">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="H25">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1027,19 +1030,19 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26">
         <v>2018</v>
       </c>
       <c r="G26">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H26">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>14</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -1056,13 +1059,13 @@
         <v>2018</v>
       </c>
       <c r="G27">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H27">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1073,19 +1076,19 @@
         <v>9</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>2018</v>
       </c>
       <c r="G28">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H28">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1096,19 +1099,19 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>2018</v>
       </c>
       <c r="G29">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H29">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -1119,19 +1122,19 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G30">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H30">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -1142,19 +1145,19 @@
         <v>9</v>
       </c>
       <c r="E31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31">
         <v>2017</v>
       </c>
       <c r="G31">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H31">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -1165,19 +1168,19 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32">
         <v>2017</v>
       </c>
       <c r="G32">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H32">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -1188,19 +1191,19 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>2017</v>
       </c>
       <c r="G33">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1211,19 +1214,19 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>2017</v>
       </c>
       <c r="G34">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1234,19 +1237,19 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F35">
         <v>2017</v>
       </c>
       <c r="G35">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H35">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -1257,19 +1260,19 @@
         <v>9</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36">
         <v>2017</v>
       </c>
       <c r="G36">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H36">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1280,19 +1283,19 @@
         <v>9</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>2017</v>
       </c>
       <c r="G37">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="H37">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1303,19 +1306,19 @@
         <v>9</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>2017</v>
       </c>
       <c r="G38">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H38">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1326,19 +1329,19 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39">
         <v>2017</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H39">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1349,19 +1352,19 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <v>2017</v>
       </c>
       <c r="G40">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H40">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1372,42 +1375,42 @@
         <v>9</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41">
         <v>2017</v>
       </c>
       <c r="G41">
+        <v>16</v>
+      </c>
+      <c r="H41">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>2017</v>
+      </c>
+      <c r="G42">
         <v>19</v>
       </c>
-      <c r="H41">
+      <c r="H42">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" t="s">
-        <v>15</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42">
-        <v>3</v>
-      </c>
-      <c r="F42">
-        <v>2020</v>
-      </c>
-      <c r="G42">
-        <v>10.6</v>
-      </c>
-      <c r="H42">
-        <v>78.599999999999994</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -1424,13 +1427,13 @@
         <v>2020</v>
       </c>
       <c r="G43">
-        <v>9</v>
+        <v>11.6</v>
       </c>
       <c r="H43">
-        <v>77.8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1441,19 +1444,19 @@
         <v>8</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>2020</v>
       </c>
       <c r="G44">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="H44">
-        <v>81.400000000000006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -1470,13 +1473,13 @@
         <v>2020</v>
       </c>
       <c r="G45">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="H45">
-        <v>83.1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1487,19 +1490,19 @@
         <v>8</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>2020</v>
       </c>
       <c r="G46">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="H46">
-        <v>80.7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1516,13 +1519,13 @@
         <v>2020</v>
       </c>
       <c r="G47">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="H47">
-        <v>84.1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1533,19 +1536,19 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G48">
-        <v>5.0999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="H48">
-        <v>69.2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1556,19 +1559,19 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49">
         <v>2019</v>
       </c>
       <c r="G49">
-        <v>4.5999999999999996</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H49">
-        <v>78.099999999999994</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1579,19 +1582,19 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50">
         <v>2019</v>
       </c>
       <c r="G50">
-        <v>9.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H50">
-        <v>61.1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1602,19 +1605,19 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F51">
         <v>2019</v>
       </c>
       <c r="G51">
-        <v>15.5</v>
+        <v>9.1</v>
       </c>
       <c r="H51">
-        <v>48.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1625,19 +1628,19 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F52">
         <v>2019</v>
       </c>
       <c r="G52">
-        <v>14.1</v>
+        <v>15.5</v>
       </c>
       <c r="H52">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -1648,19 +1651,19 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F53">
         <v>2019</v>
       </c>
       <c r="G53">
-        <v>14.7</v>
+        <v>14.1</v>
       </c>
       <c r="H53">
-        <v>48.7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -1671,19 +1674,19 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F54">
         <v>2019</v>
       </c>
       <c r="G54">
-        <v>15.5</v>
+        <v>14.7</v>
       </c>
       <c r="H54">
-        <v>42.7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48.7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -1694,19 +1697,19 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F55">
         <v>2019</v>
       </c>
       <c r="G55">
-        <v>17.3</v>
+        <v>15.5</v>
       </c>
       <c r="H55">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -1717,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F56">
         <v>2019</v>
       </c>
       <c r="G56">
-        <v>17.7</v>
+        <v>17.3</v>
       </c>
       <c r="H56">
-        <v>36.200000000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -1740,19 +1743,19 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57">
         <v>2019</v>
       </c>
       <c r="G57">
-        <v>13.2</v>
+        <v>17.7</v>
       </c>
       <c r="H57">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1763,19 +1766,19 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58">
         <v>2019</v>
       </c>
       <c r="G58">
-        <v>20.100000000000001</v>
+        <v>13.2</v>
       </c>
       <c r="H58">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -1786,56 +1789,53 @@
         <v>8</v>
       </c>
       <c r="E59">
+        <v>2</v>
+      </c>
+      <c r="F59">
+        <v>2019</v>
+      </c>
+      <c r="G59">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="H59">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60">
         <v>1</v>
       </c>
-      <c r="F59">
-        <v>2019</v>
-      </c>
-      <c r="G59">
+      <c r="F60">
+        <v>2019</v>
+      </c>
+      <c r="G60">
         <v>20.9</v>
       </c>
-      <c r="H59">
+      <c r="H60">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>11</v>
-      </c>
-      <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
         <v>27</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60">
-        <v>2020</v>
-      </c>
-      <c r="G60">
-        <v>21</v>
-      </c>
-      <c r="H60">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>11</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61">
-        <v>20</v>
       </c>
       <c r="E61">
         <v>3</v>
@@ -1844,13 +1844,13 @@
         <v>2020</v>
       </c>
       <c r="G61">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H61">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>8</v>
       </c>
       <c r="D62">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -1870,13 +1870,13 @@
         <v>2020</v>
       </c>
       <c r="G62">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H62">
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>8</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -1896,13 +1896,13 @@
         <v>2020</v>
       </c>
       <c r="G63">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H63">
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -1913,22 +1913,22 @@
         <v>8</v>
       </c>
       <c r="D64">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="E64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <v>2020</v>
       </c>
       <c r="G64">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H64">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>8</v>
       </c>
       <c r="D65">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -1951,10 +1951,10 @@
         <v>12</v>
       </c>
       <c r="H65">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>8</v>
       </c>
       <c r="D66">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -1974,13 +1974,13 @@
         <v>2020</v>
       </c>
       <c r="G66">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H66">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>8</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2000,13 +2000,13 @@
         <v>2020</v>
       </c>
       <c r="G67">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H67">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2017,22 +2017,22 @@
         <v>8</v>
       </c>
       <c r="D68">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F68">
         <v>2020</v>
       </c>
       <c r="G68">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H68">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>8</v>
       </c>
       <c r="D69">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2052,13 +2052,13 @@
         <v>2020</v>
       </c>
       <c r="G69">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H69">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>8</v>
       </c>
       <c r="D70">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2078,13 +2078,13 @@
         <v>2020</v>
       </c>
       <c r="G70">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H70">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="D71">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2107,10 +2107,10 @@
         <v>10</v>
       </c>
       <c r="H71">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -2121,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2130,13 +2130,13 @@
         <v>2020</v>
       </c>
       <c r="G72">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H72">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -2147,33 +2147,33 @@
         <v>8</v>
       </c>
       <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>2020</v>
+      </c>
+      <c r="G73">
+        <v>13</v>
+      </c>
+      <c r="H73">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74">
         <v>27</v>
-      </c>
-      <c r="E73">
-        <v>12</v>
-      </c>
-      <c r="F73">
-        <v>2019</v>
-      </c>
-      <c r="G73">
-        <v>11</v>
-      </c>
-      <c r="H73">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>11</v>
-      </c>
-      <c r="B74" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" t="s">
-        <v>8</v>
-      </c>
-      <c r="D74">
-        <v>20</v>
       </c>
       <c r="E74">
         <v>12</v>
@@ -2185,10 +2185,10 @@
         <v>11</v>
       </c>
       <c r="H74">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>8</v>
       </c>
       <c r="D75">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E75">
         <v>12</v>
@@ -2208,13 +2208,13 @@
         <v>2019</v>
       </c>
       <c r="G75">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H75">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E76">
         <v>12</v>
@@ -2237,10 +2237,10 @@
         <v>13</v>
       </c>
       <c r="H76">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -2251,22 +2251,22 @@
         <v>8</v>
       </c>
       <c r="D77">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="E77">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77">
         <v>2019</v>
       </c>
       <c r="G77">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H77">
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -2277,100 +2277,100 @@
         <v>8</v>
       </c>
       <c r="D78">
+        <v>29</v>
+      </c>
+      <c r="E78">
+        <v>11</v>
+      </c>
+      <c r="F78">
+        <v>2019</v>
+      </c>
+      <c r="G78">
+        <v>10</v>
+      </c>
+      <c r="H78">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79">
         <v>22</v>
       </c>
-      <c r="E78">
-        <v>11</v>
-      </c>
-      <c r="F78">
-        <v>2019</v>
-      </c>
-      <c r="G78">
+      <c r="E79">
+        <v>11</v>
+      </c>
+      <c r="F79">
+        <v>2019</v>
+      </c>
+      <c r="G79">
         <v>12</v>
       </c>
-      <c r="H78">
+      <c r="H79">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" t="s">
-        <v>8</v>
-      </c>
-      <c r="D79">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80">
         <v>16</v>
       </c>
-      <c r="E79">
-        <v>11</v>
-      </c>
-      <c r="F79">
-        <v>2019</v>
-      </c>
-      <c r="G79">
+      <c r="E80">
+        <v>11</v>
+      </c>
+      <c r="F80">
+        <v>2019</v>
+      </c>
+      <c r="G80">
         <v>17</v>
       </c>
-      <c r="H79">
+      <c r="H80">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>11</v>
-      </c>
-      <c r="B80" t="s">
-        <v>13</v>
-      </c>
-      <c r="C80" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80">
-        <v>8</v>
-      </c>
-      <c r="E80">
-        <v>11</v>
-      </c>
-      <c r="F80">
-        <v>2019</v>
-      </c>
-      <c r="G80">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>11</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81">
+        <v>11</v>
+      </c>
+      <c r="F81">
+        <v>2019</v>
+      </c>
+      <c r="G81">
         <v>15</v>
-      </c>
-      <c r="H80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>11</v>
-      </c>
-      <c r="B81" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" t="s">
-        <v>8</v>
-      </c>
-      <c r="D81">
-        <v>30</v>
-      </c>
-      <c r="E81">
-        <v>10</v>
-      </c>
-      <c r="F81">
-        <v>2019</v>
-      </c>
-      <c r="G81">
-        <v>13</v>
       </c>
       <c r="H81">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>8</v>
       </c>
       <c r="D82">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E82">
         <v>10</v>
@@ -2390,13 +2390,13 @@
         <v>2019</v>
       </c>
       <c r="G82">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H82">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>8</v>
       </c>
       <c r="D83">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E83">
         <v>10</v>
@@ -2416,13 +2416,13 @@
         <v>2019</v>
       </c>
       <c r="G83">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="H83">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>8</v>
       </c>
       <c r="D84">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>10</v>
@@ -2442,13 +2442,13 @@
         <v>2019</v>
       </c>
       <c r="G84">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>8</v>
       </c>
       <c r="D85">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E85">
         <v>10</v>
@@ -2468,39 +2468,39 @@
         <v>2019</v>
       </c>
       <c r="G85">
+        <v>31</v>
+      </c>
+      <c r="H85">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>11</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>2019</v>
+      </c>
+      <c r="G86">
         <v>34</v>
-      </c>
-      <c r="H85">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>11</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86">
-        <v>27</v>
-      </c>
-      <c r="E86">
-        <v>9</v>
-      </c>
-      <c r="F86">
-        <v>2019</v>
-      </c>
-      <c r="G86">
-        <v>33</v>
       </c>
       <c r="H86">
         <v>53</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>8</v>
       </c>
       <c r="D87">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E87">
         <v>9</v>
@@ -2526,7 +2526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>8</v>
       </c>
       <c r="D88">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E88">
         <v>9</v>
@@ -2546,13 +2546,13 @@
         <v>2019</v>
       </c>
       <c r="G88">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H88">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>8</v>
       </c>
       <c r="D89">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E89">
         <v>9</v>
@@ -2575,140 +2575,140 @@
         <v>30</v>
       </c>
       <c r="H89">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>9</v>
+      </c>
+      <c r="F90">
+        <v>2019</v>
+      </c>
+      <c r="G90">
+        <v>30</v>
+      </c>
+      <c r="H90">
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B90" t="s">
-        <v>13</v>
-      </c>
-      <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>8</v>
+      </c>
+      <c r="D91">
         <v>30</v>
       </c>
-      <c r="E90">
-        <v>8</v>
-      </c>
-      <c r="F90">
-        <v>2019</v>
-      </c>
-      <c r="G90">
+      <c r="E91">
+        <v>8</v>
+      </c>
+      <c r="F91">
+        <v>2019</v>
+      </c>
+      <c r="G91">
         <v>32</v>
       </c>
-      <c r="H90">
+      <c r="H91">
         <v>56</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>11</v>
-      </c>
-      <c r="B91" t="s">
-        <v>13</v>
-      </c>
-      <c r="C91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92">
         <v>23</v>
       </c>
-      <c r="E91">
-        <v>8</v>
-      </c>
-      <c r="F91">
-        <v>2019</v>
-      </c>
-      <c r="G91">
+      <c r="E92">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>2019</v>
+      </c>
+      <c r="G92">
         <v>29</v>
       </c>
-      <c r="H91">
+      <c r="H92">
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>11</v>
-      </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93">
         <v>16</v>
       </c>
-      <c r="E92">
-        <v>8</v>
-      </c>
-      <c r="F92">
-        <v>2019</v>
-      </c>
-      <c r="G92">
+      <c r="E93">
+        <v>8</v>
+      </c>
+      <c r="F93">
+        <v>2019</v>
+      </c>
+      <c r="G93">
         <v>34</v>
       </c>
-      <c r="H92">
+      <c r="H93">
         <v>54</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>11</v>
-      </c>
-      <c r="B93" t="s">
-        <v>13</v>
-      </c>
-      <c r="C93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94">
         <v>9</v>
       </c>
-      <c r="E93">
-        <v>8</v>
-      </c>
-      <c r="F93">
-        <v>2019</v>
-      </c>
-      <c r="G93">
+      <c r="E94">
+        <v>8</v>
+      </c>
+      <c r="F94">
+        <v>2019</v>
+      </c>
+      <c r="G94">
         <v>33</v>
-      </c>
-      <c r="H93">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>11</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94">
-        <v>2</v>
-      </c>
-      <c r="E94">
-        <v>8</v>
-      </c>
-      <c r="F94">
-        <v>2019</v>
-      </c>
-      <c r="G94">
-        <v>34</v>
       </c>
       <c r="H94">
         <v>53</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -2719,10 +2719,10 @@
         <v>8</v>
       </c>
       <c r="D95">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F95">
         <v>2019</v>
@@ -2731,10 +2731,10 @@
         <v>34</v>
       </c>
       <c r="H95">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E96">
         <v>7</v>
@@ -2754,13 +2754,13 @@
         <v>2019</v>
       </c>
       <c r="G96">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H96">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>8</v>
       </c>
       <c r="D97">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>7</v>
@@ -2780,13 +2780,13 @@
         <v>2019</v>
       </c>
       <c r="G97">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H97">
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>8</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E98">
         <v>7</v>
@@ -2806,180 +2806,180 @@
         <v>2019</v>
       </c>
       <c r="G98">
+        <v>30</v>
+      </c>
+      <c r="H98">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>7</v>
+      </c>
+      <c r="F99">
+        <v>2019</v>
+      </c>
+      <c r="G99">
         <v>32</v>
       </c>
-      <c r="H98">
+      <c r="H99">
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>11</v>
-      </c>
-      <c r="B99" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" t="s">
+        <v>13</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100">
         <v>28</v>
       </c>
-      <c r="E99">
-        <v>6</v>
-      </c>
-      <c r="F99">
-        <v>2019</v>
-      </c>
-      <c r="G99">
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>2019</v>
+      </c>
+      <c r="G100">
         <v>33</v>
       </c>
-      <c r="H99">
+      <c r="H100">
         <v>56</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101">
         <v>21</v>
       </c>
-      <c r="E100">
-        <v>6</v>
-      </c>
-      <c r="F100">
-        <v>2019</v>
-      </c>
-      <c r="G100">
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>2019</v>
+      </c>
+      <c r="G101">
         <v>29</v>
       </c>
-      <c r="H100">
+      <c r="H101">
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" t="s">
-        <v>13</v>
-      </c>
-      <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102">
         <v>114</v>
       </c>
-      <c r="E101">
-        <v>6</v>
-      </c>
-      <c r="F101">
-        <v>2019</v>
-      </c>
-      <c r="G101">
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>2019</v>
+      </c>
+      <c r="G102">
         <v>31</v>
       </c>
-      <c r="H101">
+      <c r="H102">
         <v>59</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" t="s">
-        <v>13</v>
-      </c>
-      <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103">
         <v>7</v>
       </c>
-      <c r="E102">
-        <v>6</v>
-      </c>
-      <c r="F102">
-        <v>2019</v>
-      </c>
-      <c r="G102">
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>2019</v>
+      </c>
+      <c r="G103">
         <v>34</v>
       </c>
-      <c r="H102">
+      <c r="H103">
         <v>56</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" t="s">
-        <v>13</v>
-      </c>
-      <c r="C103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104">
         <v>1</v>
       </c>
-      <c r="E103">
-        <v>6</v>
-      </c>
-      <c r="F103">
-        <v>2019</v>
-      </c>
-      <c r="G103">
+      <c r="E104">
+        <v>6</v>
+      </c>
+      <c r="F104">
+        <v>2019</v>
+      </c>
+      <c r="G104">
         <v>39</v>
       </c>
-      <c r="H103">
+      <c r="H104">
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" t="s">
-        <v>13</v>
-      </c>
-      <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105">
         <v>31</v>
-      </c>
-      <c r="E104">
-        <v>5</v>
-      </c>
-      <c r="F104">
-        <v>2019</v>
-      </c>
-      <c r="G104">
-        <v>33</v>
-      </c>
-      <c r="H104">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" t="s">
-        <v>13</v>
-      </c>
-      <c r="C105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105">
-        <v>24</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -2991,10 +2991,10 @@
         <v>33</v>
       </c>
       <c r="H105">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>11</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>8</v>
       </c>
       <c r="D106">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E106">
         <v>5</v>
@@ -3014,13 +3014,13 @@
         <v>2019</v>
       </c>
       <c r="G106">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>11</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="D107">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -3040,13 +3040,13 @@
         <v>2019</v>
       </c>
       <c r="G107">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>11</v>
       </c>
@@ -3057,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="D108">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E108">
         <v>5</v>
@@ -3066,13 +3066,13 @@
         <v>2019</v>
       </c>
       <c r="G108">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>11</v>
       </c>
@@ -3083,10 +3083,10 @@
         <v>8</v>
       </c>
       <c r="D109">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F109">
         <v>2019</v>
@@ -3095,10 +3095,10 @@
         <v>35</v>
       </c>
       <c r="H109">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>11</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>8</v>
       </c>
       <c r="D110">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E110">
         <v>4</v>
@@ -3118,13 +3118,13 @@
         <v>2019</v>
       </c>
       <c r="G110">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H110">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>11</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>8</v>
       </c>
       <c r="D111">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E111">
         <v>4</v>
@@ -3147,10 +3147,10 @@
         <v>36</v>
       </c>
       <c r="H111">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>11</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>8</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -3173,47 +3173,47 @@
         <v>36</v>
       </c>
       <c r="H112">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113">
+        <v>2019</v>
+      </c>
+      <c r="G113">
+        <v>36</v>
+      </c>
+      <c r="H113">
         <v>51</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" t="s">
-        <v>13</v>
-      </c>
-      <c r="C113" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114">
         <v>29</v>
-      </c>
-      <c r="E113">
-        <v>3</v>
-      </c>
-      <c r="F113">
-        <v>2019</v>
-      </c>
-      <c r="G113">
-        <v>39</v>
-      </c>
-      <c r="H113">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" t="s">
-        <v>13</v>
-      </c>
-      <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114">
-        <v>22</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -3222,13 +3222,13 @@
         <v>2019</v>
       </c>
       <c r="G114">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>11</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>8</v>
       </c>
       <c r="D115">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E115">
         <v>3</v>
@@ -3248,13 +3248,13 @@
         <v>2019</v>
       </c>
       <c r="G115">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>11</v>
       </c>
@@ -3265,7 +3265,7 @@
         <v>8</v>
       </c>
       <c r="D116">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -3274,50 +3274,50 @@
         <v>2019</v>
       </c>
       <c r="G116">
+        <v>40</v>
+      </c>
+      <c r="H116">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>8</v>
+      </c>
+      <c r="D117">
+        <v>8</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+      <c r="F117">
+        <v>2019</v>
+      </c>
+      <c r="G117">
         <v>37</v>
       </c>
-      <c r="H116">
+      <c r="H117">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" t="s">
-        <v>13</v>
-      </c>
-      <c r="C117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118">
         <v>28</v>
-      </c>
-      <c r="E117">
-        <v>2</v>
-      </c>
-      <c r="F117">
-        <v>2019</v>
-      </c>
-      <c r="G117">
-        <v>39</v>
-      </c>
-      <c r="H117">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" t="s">
-        <v>13</v>
-      </c>
-      <c r="C118" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118">
-        <v>22</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -3326,13 +3326,13 @@
         <v>2019</v>
       </c>
       <c r="G118">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>11</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>8</v>
       </c>
       <c r="D119">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -3358,7 +3358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>8</v>
       </c>
       <c r="D120">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -3378,13 +3378,13 @@
         <v>2019</v>
       </c>
       <c r="G120">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H120">
         <v>44</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>11</v>
       </c>
@@ -3395,7 +3395,7 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -3410,7 +3410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>11</v>
       </c>
@@ -3421,33 +3421,33 @@
         <v>8</v>
       </c>
       <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122">
+        <v>2</v>
+      </c>
+      <c r="F122">
+        <v>2019</v>
+      </c>
+      <c r="G122">
+        <v>44</v>
+      </c>
+      <c r="H122">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123">
         <v>25</v>
-      </c>
-      <c r="E122">
-        <v>1</v>
-      </c>
-      <c r="F122">
-        <v>2019</v>
-      </c>
-      <c r="G122">
-        <v>42</v>
-      </c>
-      <c r="H122">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>11</v>
-      </c>
-      <c r="B123" t="s">
-        <v>13</v>
-      </c>
-      <c r="C123" t="s">
-        <v>8</v>
-      </c>
-      <c r="D123">
-        <v>18</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -3462,7 +3462,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>11</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -3482,13 +3482,13 @@
         <v>2019</v>
       </c>
       <c r="G124">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H124">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>11</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>8</v>
       </c>
       <c r="D125">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -3511,10 +3511,10 @@
         <v>40</v>
       </c>
       <c r="H125">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>11</v>
       </c>
@@ -3525,22 +3525,22 @@
         <v>8</v>
       </c>
       <c r="D126">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E126">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F126">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G126">
         <v>40</v>
       </c>
       <c r="H126">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>11</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>8</v>
       </c>
       <c r="D127">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E127">
         <v>12</v>
@@ -3560,13 +3560,13 @@
         <v>2018</v>
       </c>
       <c r="G127">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H127">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>11</v>
       </c>
@@ -3577,7 +3577,7 @@
         <v>8</v>
       </c>
       <c r="D128">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E128">
         <v>12</v>
@@ -3592,7 +3592,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>11</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>8</v>
       </c>
       <c r="D129">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E129">
         <v>12</v>
@@ -3612,39 +3612,39 @@
         <v>2018</v>
       </c>
       <c r="G129">
+        <v>38</v>
+      </c>
+      <c r="H129">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130">
+        <v>7</v>
+      </c>
+      <c r="E130">
+        <v>12</v>
+      </c>
+      <c r="F130">
+        <v>2018</v>
+      </c>
+      <c r="G130">
         <v>39</v>
-      </c>
-      <c r="H129">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
-        <v>11</v>
-      </c>
-      <c r="B130" t="s">
-        <v>13</v>
-      </c>
-      <c r="C130" t="s">
-        <v>8</v>
-      </c>
-      <c r="D130">
-        <v>30</v>
-      </c>
-      <c r="E130">
-        <v>11</v>
-      </c>
-      <c r="F130">
-        <v>2018</v>
-      </c>
-      <c r="G130">
-        <v>41</v>
       </c>
       <c r="H130">
         <v>46</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>11</v>
       </c>
@@ -3655,111 +3655,111 @@
         <v>8</v>
       </c>
       <c r="D131">
+        <v>30</v>
+      </c>
+      <c r="E131">
+        <v>11</v>
+      </c>
+      <c r="F131">
+        <v>2018</v>
+      </c>
+      <c r="G131">
+        <v>41</v>
+      </c>
+      <c r="H131">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>8</v>
+      </c>
+      <c r="D132">
         <v>23</v>
       </c>
-      <c r="E131">
-        <v>11</v>
-      </c>
-      <c r="F131">
-        <v>2018</v>
-      </c>
-      <c r="G131">
+      <c r="E132">
+        <v>11</v>
+      </c>
+      <c r="F132">
+        <v>2018</v>
+      </c>
+      <c r="G132">
         <v>38</v>
       </c>
-      <c r="H131">
+      <c r="H132">
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" t="s">
-        <v>13</v>
-      </c>
-      <c r="C132" t="s">
-        <v>8</v>
-      </c>
-      <c r="D132">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133">
         <v>16</v>
       </c>
-      <c r="E132">
-        <v>11</v>
-      </c>
-      <c r="F132">
-        <v>2018</v>
-      </c>
-      <c r="G132">
+      <c r="E133">
+        <v>11</v>
+      </c>
+      <c r="F133">
+        <v>2018</v>
+      </c>
+      <c r="G133">
         <v>41</v>
       </c>
-      <c r="H132">
+      <c r="H133">
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" t="s">
-        <v>13</v>
-      </c>
-      <c r="C133" t="s">
-        <v>8</v>
-      </c>
-      <c r="D133">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>8</v>
+      </c>
+      <c r="D134">
         <v>9</v>
       </c>
-      <c r="E133">
-        <v>11</v>
-      </c>
-      <c r="F133">
-        <v>2018</v>
-      </c>
-      <c r="G133">
+      <c r="E134">
+        <v>11</v>
+      </c>
+      <c r="F134">
+        <v>2018</v>
+      </c>
+      <c r="G134">
         <v>44</v>
       </c>
-      <c r="H133">
+      <c r="H134">
         <v>40</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
-        <v>11</v>
-      </c>
-      <c r="B134" t="s">
-        <v>13</v>
-      </c>
-      <c r="C134" t="s">
-        <v>8</v>
-      </c>
-      <c r="D134">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135">
         <v>31</v>
-      </c>
-      <c r="E134">
-        <v>10</v>
-      </c>
-      <c r="F134">
-        <v>2018</v>
-      </c>
-      <c r="G134">
-        <v>48</v>
-      </c>
-      <c r="H134">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
-        <v>11</v>
-      </c>
-      <c r="B135" t="s">
-        <v>13</v>
-      </c>
-      <c r="C135" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135">
-        <v>26</v>
       </c>
       <c r="E135">
         <v>10</v>
@@ -3768,13 +3768,13 @@
         <v>2018</v>
       </c>
       <c r="G135">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H135">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>11</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>8</v>
       </c>
       <c r="D136">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E136">
         <v>10</v>
@@ -3794,13 +3794,13 @@
         <v>2018</v>
       </c>
       <c r="G136">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H136">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>11</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>8</v>
       </c>
       <c r="D137">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E137">
         <v>10</v>
@@ -3820,13 +3820,13 @@
         <v>2018</v>
       </c>
       <c r="G137">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H137">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>11</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>8</v>
       </c>
       <c r="D138">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E138">
         <v>10</v>
@@ -3849,47 +3849,47 @@
         <v>51</v>
       </c>
       <c r="H138">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>2018</v>
+      </c>
+      <c r="G139">
+        <v>51</v>
+      </c>
+      <c r="H139">
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139" t="s">
-        <v>13</v>
-      </c>
-      <c r="C139" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>8</v>
+      </c>
+      <c r="D140">
         <v>28</v>
-      </c>
-      <c r="E139">
-        <v>9</v>
-      </c>
-      <c r="F139">
-        <v>2018</v>
-      </c>
-      <c r="G139">
-        <v>48</v>
-      </c>
-      <c r="H139">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140" t="s">
-        <v>8</v>
-      </c>
-      <c r="D140">
-        <v>21</v>
       </c>
       <c r="E140">
         <v>9</v>
@@ -3898,13 +3898,13 @@
         <v>2018</v>
       </c>
       <c r="G140">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H140">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>11</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>8</v>
       </c>
       <c r="D141">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E141">
         <v>9</v>
@@ -3924,13 +3924,13 @@
         <v>2018</v>
       </c>
       <c r="G141">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H141">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>11</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="D142">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -3950,13 +3950,13 @@
         <v>2018</v>
       </c>
       <c r="G142">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H142">
         <v>44</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>11</v>
       </c>
@@ -3967,33 +3967,33 @@
         <v>8</v>
       </c>
       <c r="D143">
+        <v>7</v>
+      </c>
+      <c r="E143">
+        <v>9</v>
+      </c>
+      <c r="F143">
+        <v>2018</v>
+      </c>
+      <c r="G143">
+        <v>42</v>
+      </c>
+      <c r="H143">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144">
         <v>31</v>
-      </c>
-      <c r="E143">
-        <v>8</v>
-      </c>
-      <c r="F143">
-        <v>2018</v>
-      </c>
-      <c r="G143">
-        <v>47</v>
-      </c>
-      <c r="H143">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
-        <v>11</v>
-      </c>
-      <c r="B144" t="s">
-        <v>13</v>
-      </c>
-      <c r="C144" t="s">
-        <v>8</v>
-      </c>
-      <c r="D144">
-        <v>24</v>
       </c>
       <c r="E144">
         <v>8</v>
@@ -4005,47 +4005,47 @@
         <v>47</v>
       </c>
       <c r="H144">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145">
+        <v>24</v>
+      </c>
+      <c r="E145">
+        <v>8</v>
+      </c>
+      <c r="F145">
+        <v>2018</v>
+      </c>
+      <c r="G145">
+        <v>47</v>
+      </c>
+      <c r="H145">
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
-        <v>11</v>
-      </c>
-      <c r="B145" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" t="s">
-        <v>8</v>
-      </c>
-      <c r="D145">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146">
         <v>17</v>
-      </c>
-      <c r="E145">
-        <v>8</v>
-      </c>
-      <c r="F145">
-        <v>2018</v>
-      </c>
-      <c r="G145">
-        <v>45</v>
-      </c>
-      <c r="H145">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
-        <v>11</v>
-      </c>
-      <c r="B146" t="s">
-        <v>13</v>
-      </c>
-      <c r="C146" t="s">
-        <v>8</v>
-      </c>
-      <c r="D146">
-        <v>10</v>
       </c>
       <c r="E146">
         <v>8</v>
@@ -4057,10 +4057,10 @@
         <v>45</v>
       </c>
       <c r="H146">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>11</v>
       </c>
@@ -4071,7 +4071,7 @@
         <v>8</v>
       </c>
       <c r="D147">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E147">
         <v>8</v>
@@ -4083,47 +4083,47 @@
         <v>45</v>
       </c>
       <c r="H147">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148">
+        <v>3</v>
+      </c>
+      <c r="E148">
+        <v>8</v>
+      </c>
+      <c r="F148">
+        <v>2018</v>
+      </c>
+      <c r="G148">
+        <v>45</v>
+      </c>
+      <c r="H148">
         <v>39</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
-        <v>11</v>
-      </c>
-      <c r="B148" t="s">
-        <v>13</v>
-      </c>
-      <c r="C148" t="s">
-        <v>8</v>
-      </c>
-      <c r="D148">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149">
         <v>27</v>
-      </c>
-      <c r="E148">
-        <v>7</v>
-      </c>
-      <c r="F148">
-        <v>2018</v>
-      </c>
-      <c r="G148">
-        <v>49</v>
-      </c>
-      <c r="H148">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
-        <v>11</v>
-      </c>
-      <c r="B149" t="s">
-        <v>13</v>
-      </c>
-      <c r="C149" t="s">
-        <v>8</v>
-      </c>
-      <c r="D149">
-        <v>20</v>
       </c>
       <c r="E149">
         <v>7</v>
@@ -4132,13 +4132,13 @@
         <v>2018</v>
       </c>
       <c r="G149">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H149">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>11</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>8</v>
       </c>
       <c r="D150">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E150">
         <v>7</v>
@@ -4161,10 +4161,10 @@
         <v>54</v>
       </c>
       <c r="H150">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>11</v>
       </c>
@@ -4175,7 +4175,7 @@
         <v>8</v>
       </c>
       <c r="D151">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E151">
         <v>7</v>
@@ -4184,13 +4184,13 @@
         <v>2018</v>
       </c>
       <c r="G151">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H151">
         <v>30</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>11</v>
       </c>
@@ -4201,126 +4201,126 @@
         <v>8</v>
       </c>
       <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152">
+        <v>7</v>
+      </c>
+      <c r="F152">
+        <v>2018</v>
+      </c>
+      <c r="G152">
+        <v>55</v>
+      </c>
+      <c r="H152">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153">
         <v>29</v>
       </c>
-      <c r="E152">
-        <v>6</v>
-      </c>
-      <c r="F152">
-        <v>2018</v>
-      </c>
-      <c r="G152">
+      <c r="E153">
+        <v>6</v>
+      </c>
+      <c r="F153">
+        <v>2018</v>
+      </c>
+      <c r="G153">
         <v>57</v>
       </c>
-      <c r="H152">
+      <c r="H153">
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>11</v>
-      </c>
-      <c r="B153" t="s">
-        <v>13</v>
-      </c>
-      <c r="C153" t="s">
-        <v>8</v>
-      </c>
-      <c r="D153">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154">
         <v>22</v>
       </c>
-      <c r="E153">
-        <v>6</v>
-      </c>
-      <c r="F153">
-        <v>2018</v>
-      </c>
-      <c r="G153">
+      <c r="E154">
+        <v>6</v>
+      </c>
+      <c r="F154">
+        <v>2018</v>
+      </c>
+      <c r="G154">
         <v>58</v>
       </c>
-      <c r="H153">
+      <c r="H154">
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" t="s">
-        <v>13</v>
-      </c>
-      <c r="C154" t="s">
-        <v>8</v>
-      </c>
-      <c r="D154">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155">
         <v>15</v>
       </c>
-      <c r="E154">
-        <v>6</v>
-      </c>
-      <c r="F154">
-        <v>2018</v>
-      </c>
-      <c r="G154">
+      <c r="E155">
+        <v>6</v>
+      </c>
+      <c r="F155">
+        <v>2018</v>
+      </c>
+      <c r="G155">
         <v>60</v>
       </c>
-      <c r="H154">
+      <c r="H155">
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" t="s">
-        <v>8</v>
-      </c>
-      <c r="D155">
-        <v>8</v>
-      </c>
-      <c r="E155">
-        <v>6</v>
-      </c>
-      <c r="F155">
-        <v>2018</v>
-      </c>
-      <c r="G155">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156">
+        <v>8</v>
+      </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>2018</v>
+      </c>
+      <c r="G156">
         <v>58</v>
-      </c>
-      <c r="H155">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>11</v>
-      </c>
-      <c r="B156" t="s">
-        <v>13</v>
-      </c>
-      <c r="C156" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156">
-        <v>5</v>
-      </c>
-      <c r="E156">
-        <v>6</v>
-      </c>
-      <c r="F156">
-        <v>2018</v>
-      </c>
-      <c r="G156">
-        <v>57</v>
       </c>
       <c r="H156">
         <v>26</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>11</v>
       </c>
@@ -4331,10 +4331,10 @@
         <v>8</v>
       </c>
       <c r="D157">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E157">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F157">
         <v>2018</v>
@@ -4346,7 +4346,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>11</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>8</v>
       </c>
       <c r="D158">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E158">
         <v>5</v>
@@ -4366,13 +4366,13 @@
         <v>2018</v>
       </c>
       <c r="G158">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H158">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>11</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>8</v>
       </c>
       <c r="D159">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E159">
         <v>5</v>
@@ -4392,13 +4392,13 @@
         <v>2018</v>
       </c>
       <c r="G159">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H159">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>8</v>
       </c>
       <c r="D160">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -4418,50 +4418,50 @@
         <v>2018</v>
       </c>
       <c r="G160">
+        <v>54</v>
+      </c>
+      <c r="H160">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161">
+        <v>4</v>
+      </c>
+      <c r="E161">
+        <v>5</v>
+      </c>
+      <c r="F161">
+        <v>2018</v>
+      </c>
+      <c r="G161">
         <v>58</v>
       </c>
-      <c r="H160">
+      <c r="H161">
         <v>24</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" t="s">
-        <v>13</v>
-      </c>
-      <c r="C161" t="s">
-        <v>8</v>
-      </c>
-      <c r="D161">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162">
         <v>27</v>
-      </c>
-      <c r="E161">
-        <v>4</v>
-      </c>
-      <c r="F161">
-        <v>2018</v>
-      </c>
-      <c r="G161">
-        <v>55</v>
-      </c>
-      <c r="H161">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>11</v>
-      </c>
-      <c r="B162" t="s">
-        <v>13</v>
-      </c>
-      <c r="C162" t="s">
-        <v>8</v>
-      </c>
-      <c r="D162">
-        <v>20</v>
       </c>
       <c r="E162">
         <v>4</v>
@@ -4470,13 +4470,13 @@
         <v>2018</v>
       </c>
       <c r="G162">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H162">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>11</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>8</v>
       </c>
       <c r="D163">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="E163">
         <v>4</v>
@@ -4496,13 +4496,13 @@
         <v>2018</v>
       </c>
       <c r="G163">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H163">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>11</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>8</v>
       </c>
       <c r="D164">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E164">
         <v>4</v>
@@ -4522,50 +4522,50 @@
         <v>2018</v>
       </c>
       <c r="G164">
+        <v>60</v>
+      </c>
+      <c r="H164">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165">
+        <v>4</v>
+      </c>
+      <c r="F165">
+        <v>2018</v>
+      </c>
+      <c r="G165">
         <v>55</v>
       </c>
-      <c r="H164">
+      <c r="H165">
         <v>27</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>11</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" t="s">
-        <v>8</v>
-      </c>
-      <c r="D165">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" t="s">
+        <v>13</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166">
         <v>29</v>
-      </c>
-      <c r="E165">
-        <v>3</v>
-      </c>
-      <c r="F165">
-        <v>2018</v>
-      </c>
-      <c r="G165">
-        <v>58</v>
-      </c>
-      <c r="H165">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>11</v>
-      </c>
-      <c r="B166" t="s">
-        <v>13</v>
-      </c>
-      <c r="C166" t="s">
-        <v>8</v>
-      </c>
-      <c r="D166">
-        <v>23</v>
       </c>
       <c r="E166">
         <v>3</v>
@@ -4574,13 +4574,13 @@
         <v>2018</v>
       </c>
       <c r="G166">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H166">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>11</v>
       </c>
@@ -4591,7 +4591,7 @@
         <v>8</v>
       </c>
       <c r="D167">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E167">
         <v>3</v>
@@ -4600,10 +4600,423 @@
         <v>2018</v>
       </c>
       <c r="G167">
+        <v>54</v>
+      </c>
+      <c r="H167">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168">
+        <v>16</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="F168">
+        <v>2018</v>
+      </c>
+      <c r="G168">
         <v>41</v>
       </c>
-      <c r="H167">
+      <c r="H168">
         <v>21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169">
+        <v>3</v>
+      </c>
+      <c r="E169">
+        <v>4</v>
+      </c>
+      <c r="F169">
+        <v>2020</v>
+      </c>
+      <c r="G169">
+        <v>19</v>
+      </c>
+      <c r="H169">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170">
+        <v>9</v>
+      </c>
+      <c r="E170">
+        <v>4</v>
+      </c>
+      <c r="F170">
+        <v>2020</v>
+      </c>
+      <c r="G170">
+        <v>22</v>
+      </c>
+      <c r="H170">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171">
+        <v>16</v>
+      </c>
+      <c r="E171">
+        <v>4</v>
+      </c>
+      <c r="F171">
+        <v>2020</v>
+      </c>
+      <c r="G171">
+        <v>25</v>
+      </c>
+      <c r="H171">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172">
+        <v>23</v>
+      </c>
+      <c r="E172">
+        <v>4</v>
+      </c>
+      <c r="F172">
+        <v>2020</v>
+      </c>
+      <c r="G172">
+        <v>24</v>
+      </c>
+      <c r="H172">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173">
+        <v>30</v>
+      </c>
+      <c r="E173">
+        <v>4</v>
+      </c>
+      <c r="F173">
+        <v>2020</v>
+      </c>
+      <c r="G173">
+        <v>25</v>
+      </c>
+      <c r="H173">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174">
+        <v>7</v>
+      </c>
+      <c r="E174">
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>2020</v>
+      </c>
+      <c r="G174">
+        <v>25</v>
+      </c>
+      <c r="H174">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175">
+        <v>14</v>
+      </c>
+      <c r="E175">
+        <v>5</v>
+      </c>
+      <c r="F175">
+        <v>2020</v>
+      </c>
+      <c r="G175">
+        <v>24</v>
+      </c>
+      <c r="H175">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176">
+        <v>22</v>
+      </c>
+      <c r="E176">
+        <v>5</v>
+      </c>
+      <c r="F176">
+        <v>2020</v>
+      </c>
+      <c r="G176">
+        <v>27</v>
+      </c>
+      <c r="H176">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177">
+        <v>28</v>
+      </c>
+      <c r="E177">
+        <v>5</v>
+      </c>
+      <c r="F177">
+        <v>2020</v>
+      </c>
+      <c r="G177">
+        <v>29</v>
+      </c>
+      <c r="H177">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178">
+        <v>4</v>
+      </c>
+      <c r="F178">
+        <v>2020</v>
+      </c>
+      <c r="G178">
+        <v>14.3</v>
+      </c>
+      <c r="H178">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>10</v>
+      </c>
+      <c r="B179" t="s">
+        <v>15</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179">
+        <v>4</v>
+      </c>
+      <c r="F179">
+        <v>2020</v>
+      </c>
+      <c r="G179">
+        <v>13.2</v>
+      </c>
+      <c r="H179">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" t="s">
+        <v>15</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>2020</v>
+      </c>
+      <c r="G180">
+        <v>18</v>
+      </c>
+      <c r="H180">
+        <v>73.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/raw/encuestas.xlsx
+++ b/raw/encuestas.xlsx
@@ -436,7 +436,7 @@
   <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+      <selection activeCell="K179" sqref="K179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4923,7 +4923,7 @@
         <v>8</v>
       </c>
       <c r="E180">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F180">
         <v>2020</v>

--- a/raw/encuestas.xlsx
+++ b/raw/encuestas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="aprobacion" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="19">
   <si>
     <t>dia</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>logro</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -433,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="K179" sqref="K179"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D177" sqref="D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,16 +484,16 @@
         <v>8</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2">
         <v>2020</v>
       </c>
       <c r="G2">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="H2">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -501,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>2020</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -524,16 +530,16 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>2020</v>
       </c>
       <c r="G4">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="H4">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -547,16 +553,16 @@
         <v>8</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2020</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H5">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -570,16 +576,16 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -593,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="E7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7">
         <v>84</v>
@@ -616,7 +622,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -625,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="H8">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -639,16 +645,16 @@
         <v>8</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2019</v>
       </c>
       <c r="G9">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="H9">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -662,16 +668,16 @@
         <v>8</v>
       </c>
       <c r="E10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>2019</v>
       </c>
       <c r="G10">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="H10">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -685,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>2019</v>
       </c>
       <c r="G11">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H11">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -708,16 +714,16 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>2019</v>
       </c>
       <c r="G12">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="H12">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -731,16 +737,16 @@
         <v>8</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F13">
         <v>2019</v>
       </c>
       <c r="G13">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -754,16 +760,16 @@
         <v>8</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14">
         <v>2019</v>
       </c>
       <c r="G14">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -777,16 +783,16 @@
         <v>8</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F15">
         <v>2019</v>
       </c>
       <c r="G15">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -800,16 +806,16 @@
         <v>8</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16">
         <v>2019</v>
       </c>
       <c r="G16">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H16">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -823,16 +829,16 @@
         <v>8</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>2019</v>
       </c>
       <c r="G17">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -846,16 +852,16 @@
         <v>8</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G18">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H18">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -869,16 +875,16 @@
         <v>8</v>
       </c>
       <c r="E19">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G19">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H19">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -892,16 +898,16 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <v>2018</v>
       </c>
       <c r="G20">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -915,16 +921,16 @@
         <v>8</v>
       </c>
       <c r="E21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>2018</v>
       </c>
       <c r="G21">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -938,16 +944,16 @@
         <v>8</v>
       </c>
       <c r="E22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>2018</v>
       </c>
       <c r="G22">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -961,16 +967,16 @@
         <v>8</v>
       </c>
       <c r="E23">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F23">
         <v>2018</v>
       </c>
       <c r="G23">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="H23">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -984,16 +990,16 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>2018</v>
       </c>
       <c r="G24">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="H24">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1007,16 +1013,16 @@
         <v>8</v>
       </c>
       <c r="E25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>2018</v>
       </c>
       <c r="G25">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="H25">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1030,16 +1036,16 @@
         <v>8</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>2018</v>
       </c>
       <c r="G26">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H26">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1053,16 +1059,16 @@
         <v>8</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27">
         <v>2018</v>
       </c>
       <c r="G27">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="H27">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1073,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28">
         <v>2018</v>
       </c>
       <c r="G28">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="H28">
-        <v>53</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1096,19 +1102,19 @@
         <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>2018</v>
       </c>
       <c r="G29">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H29">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1122,16 +1128,16 @@
         <v>9</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>2018</v>
       </c>
       <c r="G30">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H30">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1145,16 +1151,16 @@
         <v>9</v>
       </c>
       <c r="E31">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G31">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H31">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1168,16 +1174,16 @@
         <v>9</v>
       </c>
       <c r="E32">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="G32">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="H32">
-        <v>58</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1191,16 +1197,16 @@
         <v>9</v>
       </c>
       <c r="E33">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F33">
         <v>2017</v>
       </c>
       <c r="G33">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H33">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1214,16 +1220,16 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F34">
         <v>2017</v>
       </c>
       <c r="G34">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1237,16 +1243,16 @@
         <v>9</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>2017</v>
       </c>
       <c r="G35">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="H35">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1260,16 +1266,16 @@
         <v>9</v>
       </c>
       <c r="E36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F36">
         <v>2017</v>
       </c>
       <c r="G36">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="H36">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1283,16 +1289,16 @@
         <v>9</v>
       </c>
       <c r="E37">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F37">
         <v>2017</v>
       </c>
       <c r="G37">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H37">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1306,16 +1312,16 @@
         <v>9</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38">
         <v>2017</v>
       </c>
       <c r="G38">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H38">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,16 +1335,16 @@
         <v>9</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F39">
         <v>2017</v>
       </c>
       <c r="G39">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H39">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1352,16 +1358,16 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>2017</v>
       </c>
       <c r="G40">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H40">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1375,16 +1381,16 @@
         <v>9</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41">
         <v>2017</v>
       </c>
       <c r="G41">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H41">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1398,62 +1404,62 @@
         <v>9</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42">
         <v>2017</v>
       </c>
       <c r="G42">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H42">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="G43">
-        <v>11.6</v>
+        <v>16</v>
       </c>
       <c r="H43">
-        <v>78.599999999999994</v>
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="G44">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H44">
-        <v>77.8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1467,16 +1473,16 @@
         <v>8</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F45">
         <v>2020</v>
       </c>
       <c r="G45">
-        <v>6.7</v>
+        <v>11.6</v>
       </c>
       <c r="H45">
-        <v>81.400000000000006</v>
+        <v>78.599999999999994</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1490,16 +1496,16 @@
         <v>8</v>
       </c>
       <c r="E46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>2020</v>
       </c>
       <c r="G46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H46">
-        <v>83.1</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1513,16 +1519,16 @@
         <v>8</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F47">
         <v>2020</v>
       </c>
       <c r="G47">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="H47">
-        <v>80.7</v>
+        <v>81.400000000000006</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1536,16 +1542,16 @@
         <v>8</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48">
         <v>2020</v>
       </c>
       <c r="G48">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="H48">
-        <v>84.1</v>
+        <v>83.1</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1559,16 +1565,16 @@
         <v>8</v>
       </c>
       <c r="E49">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G49">
-        <v>5.0999999999999996</v>
+        <v>7.7</v>
       </c>
       <c r="H49">
-        <v>69.2</v>
+        <v>80.7</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1582,16 +1588,16 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G50">
-        <v>4.5999999999999996</v>
+        <v>6.6</v>
       </c>
       <c r="H50">
-        <v>78.099999999999994</v>
+        <v>84.1</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1605,16 +1611,16 @@
         <v>8</v>
       </c>
       <c r="E51">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F51">
         <v>2019</v>
       </c>
       <c r="G51">
-        <v>9.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H51">
-        <v>61.1</v>
+        <v>69.2</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1628,16 +1634,16 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F52">
         <v>2019</v>
       </c>
       <c r="G52">
-        <v>15.5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H52">
-        <v>48.8</v>
+        <v>78.099999999999994</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1651,16 +1657,16 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>2019</v>
       </c>
       <c r="G53">
-        <v>14.1</v>
+        <v>9.1</v>
       </c>
       <c r="H53">
-        <v>46</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1674,16 +1680,16 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F54">
         <v>2019</v>
       </c>
       <c r="G54">
-        <v>14.7</v>
+        <v>15.5</v>
       </c>
       <c r="H54">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1697,16 +1703,16 @@
         <v>8</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F55">
         <v>2019</v>
       </c>
       <c r="G55">
-        <v>15.5</v>
+        <v>14.1</v>
       </c>
       <c r="H55">
-        <v>42.7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -1720,16 +1726,16 @@
         <v>8</v>
       </c>
       <c r="E56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F56">
         <v>2019</v>
       </c>
       <c r="G56">
-        <v>17.3</v>
+        <v>14.7</v>
       </c>
       <c r="H56">
-        <v>41</v>
+        <v>48.7</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -1743,16 +1749,16 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F57">
         <v>2019</v>
       </c>
       <c r="G57">
-        <v>17.7</v>
+        <v>15.5</v>
       </c>
       <c r="H57">
-        <v>36.200000000000003</v>
+        <v>42.7</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -1766,16 +1772,16 @@
         <v>8</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F58">
         <v>2019</v>
       </c>
       <c r="G58">
-        <v>13.2</v>
+        <v>17.3</v>
       </c>
       <c r="H58">
-        <v>44.2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -1789,16 +1795,16 @@
         <v>8</v>
       </c>
       <c r="E59">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59">
         <v>2019</v>
       </c>
       <c r="G59">
-        <v>20.100000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="H59">
-        <v>39.799999999999997</v>
+        <v>36.200000000000003</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -1812,68 +1818,62 @@
         <v>8</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60">
         <v>2019</v>
       </c>
       <c r="G60">
-        <v>20.9</v>
+        <v>13.2</v>
       </c>
       <c r="H60">
-        <v>68</v>
+        <v>44.2</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="D61">
-        <v>27</v>
-      </c>
       <c r="E61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F61">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G61">
-        <v>21</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="H61">
-        <v>71</v>
+        <v>39.799999999999997</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C62" t="s">
         <v>8</v>
       </c>
-      <c r="D62">
-        <v>20</v>
-      </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="G62">
-        <v>18</v>
+        <v>20.9</v>
       </c>
       <c r="H62">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -1887,7 +1887,7 @@
         <v>8</v>
       </c>
       <c r="D63">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E63">
         <v>3</v>
@@ -1896,10 +1896,10 @@
         <v>2020</v>
       </c>
       <c r="G63">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H63">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -1913,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="D64">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -1922,7 +1922,7 @@
         <v>2020</v>
       </c>
       <c r="G64">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H64">
         <v>81</v>
@@ -1939,10 +1939,10 @@
         <v>8</v>
       </c>
       <c r="D65">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65">
         <v>2020</v>
@@ -1951,7 +1951,7 @@
         <v>12</v>
       </c>
       <c r="H65">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -1965,19 +1965,19 @@
         <v>8</v>
       </c>
       <c r="D66">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66">
         <v>2020</v>
       </c>
       <c r="G66">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H66">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
         <v>8</v>
       </c>
       <c r="D67">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2000,10 +2000,10 @@
         <v>2020</v>
       </c>
       <c r="G67">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H67">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2017,7 +2017,7 @@
         <v>8</v>
       </c>
       <c r="D68">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -2026,10 +2026,10 @@
         <v>2020</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H68">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2043,19 +2043,19 @@
         <v>8</v>
       </c>
       <c r="D69">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69">
         <v>2020</v>
       </c>
       <c r="G69">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H69">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2069,16 +2069,16 @@
         <v>8</v>
       </c>
       <c r="D70">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70">
         <v>2020</v>
       </c>
       <c r="G70">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H70">
         <v>82</v>
@@ -2095,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="D71">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2104,10 +2104,10 @@
         <v>2020</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H71">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2121,7 +2121,7 @@
         <v>8</v>
       </c>
       <c r="D72">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2130,10 +2130,10 @@
         <v>2020</v>
       </c>
       <c r="G72">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H72">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2147,7 +2147,7 @@
         <v>8</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2156,10 +2156,10 @@
         <v>2020</v>
       </c>
       <c r="G73">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H73">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2173,19 +2173,19 @@
         <v>8</v>
       </c>
       <c r="D74">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E74">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G74">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H74">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2199,19 +2199,19 @@
         <v>8</v>
       </c>
       <c r="D75">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E75">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F75">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G75">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H75">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2225,7 +2225,7 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E76">
         <v>12</v>
@@ -2234,10 +2234,10 @@
         <v>2019</v>
       </c>
       <c r="G76">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H76">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2251,7 +2251,7 @@
         <v>8</v>
       </c>
       <c r="D77">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E77">
         <v>12</v>
@@ -2260,10 +2260,10 @@
         <v>2019</v>
       </c>
       <c r="G77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H77">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2277,19 +2277,19 @@
         <v>8</v>
       </c>
       <c r="D78">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E78">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78">
         <v>2019</v>
       </c>
       <c r="G78">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H78">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2303,19 +2303,19 @@
         <v>8</v>
       </c>
       <c r="D79">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E79">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79">
         <v>2019</v>
       </c>
       <c r="G79">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2329,7 +2329,7 @@
         <v>8</v>
       </c>
       <c r="D80">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E80">
         <v>11</v>
@@ -2338,10 +2338,10 @@
         <v>2019</v>
       </c>
       <c r="G80">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="H80">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2355,7 +2355,7 @@
         <v>8</v>
       </c>
       <c r="D81">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E81">
         <v>11</v>
@@ -2364,10 +2364,10 @@
         <v>2019</v>
       </c>
       <c r="G81">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H81">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2381,19 +2381,19 @@
         <v>8</v>
       </c>
       <c r="D82">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82">
         <v>2019</v>
       </c>
       <c r="G82">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H82">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2407,19 +2407,19 @@
         <v>8</v>
       </c>
       <c r="D83">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83">
         <v>2019</v>
       </c>
       <c r="G83">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H83">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
         <v>8</v>
       </c>
       <c r="D84">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E84">
         <v>10</v>
@@ -2442,10 +2442,10 @@
         <v>2019</v>
       </c>
       <c r="G84">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="H84">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2459,7 +2459,7 @@
         <v>8</v>
       </c>
       <c r="D85">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E85">
         <v>10</v>
@@ -2468,10 +2468,10 @@
         <v>2019</v>
       </c>
       <c r="G85">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H85">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2485,7 +2485,7 @@
         <v>8</v>
       </c>
       <c r="D86">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>10</v>
@@ -2494,10 +2494,10 @@
         <v>2019</v>
       </c>
       <c r="G86">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2511,19 +2511,19 @@
         <v>8</v>
       </c>
       <c r="D87">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E87">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87">
         <v>2019</v>
       </c>
       <c r="G87">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -2537,16 +2537,16 @@
         <v>8</v>
       </c>
       <c r="D88">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E88">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F88">
         <v>2019</v>
       </c>
       <c r="G88">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H88">
         <v>53</v>
@@ -2563,7 +2563,7 @@
         <v>8</v>
       </c>
       <c r="D89">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E89">
         <v>9</v>
@@ -2572,10 +2572,10 @@
         <v>2019</v>
       </c>
       <c r="G89">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>8</v>
       </c>
       <c r="D90">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E90">
         <v>9</v>
@@ -2598,10 +2598,10 @@
         <v>2019</v>
       </c>
       <c r="G90">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H90">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -2615,19 +2615,19 @@
         <v>8</v>
       </c>
       <c r="D91">
+        <v>13</v>
+      </c>
+      <c r="E91">
+        <v>9</v>
+      </c>
+      <c r="F91">
+        <v>2019</v>
+      </c>
+      <c r="G91">
         <v>30</v>
       </c>
-      <c r="E91">
-        <v>8</v>
-      </c>
-      <c r="F91">
-        <v>2019</v>
-      </c>
-      <c r="G91">
-        <v>32</v>
-      </c>
       <c r="H91">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -2641,19 +2641,19 @@
         <v>8</v>
       </c>
       <c r="D92">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E92">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92">
         <v>2019</v>
       </c>
       <c r="G92">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H92">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -2667,7 +2667,7 @@
         <v>8</v>
       </c>
       <c r="D93">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E93">
         <v>8</v>
@@ -2676,10 +2676,10 @@
         <v>2019</v>
       </c>
       <c r="G93">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H93">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>8</v>
       </c>
       <c r="D94">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E94">
         <v>8</v>
@@ -2702,10 +2702,10 @@
         <v>2019</v>
       </c>
       <c r="G94">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H94">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>8</v>
       </c>
       <c r="D95">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>8</v>
@@ -2731,7 +2731,7 @@
         <v>34</v>
       </c>
       <c r="H95">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -2745,19 +2745,19 @@
         <v>8</v>
       </c>
       <c r="D96">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F96">
         <v>2019</v>
       </c>
       <c r="G96">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H96">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
@@ -2771,19 +2771,19 @@
         <v>8</v>
       </c>
       <c r="D97">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="E97">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F97">
         <v>2019</v>
       </c>
       <c r="G97">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
@@ -2797,7 +2797,7 @@
         <v>8</v>
       </c>
       <c r="D98">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E98">
         <v>7</v>
@@ -2806,10 +2806,10 @@
         <v>2019</v>
       </c>
       <c r="G98">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -2823,7 +2823,7 @@
         <v>8</v>
       </c>
       <c r="D99">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E99">
         <v>7</v>
@@ -2832,10 +2832,10 @@
         <v>2019</v>
       </c>
       <c r="G99">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -2849,19 +2849,19 @@
         <v>8</v>
       </c>
       <c r="D100">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E100">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F100">
         <v>2019</v>
       </c>
       <c r="G100">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
@@ -2875,16 +2875,16 @@
         <v>8</v>
       </c>
       <c r="D101">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F101">
         <v>2019</v>
       </c>
       <c r="G101">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>57</v>
@@ -2901,7 +2901,7 @@
         <v>8</v>
       </c>
       <c r="D102">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E102">
         <v>6</v>
@@ -2910,10 +2910,10 @@
         <v>2019</v>
       </c>
       <c r="G102">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H102">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
@@ -2927,7 +2927,7 @@
         <v>8</v>
       </c>
       <c r="D103">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E103">
         <v>6</v>
@@ -2936,10 +2936,10 @@
         <v>2019</v>
       </c>
       <c r="G103">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
@@ -2953,7 +2953,7 @@
         <v>8</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="E104">
         <v>6</v>
@@ -2962,10 +2962,10 @@
         <v>2019</v>
       </c>
       <c r="G104">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H104">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
@@ -2979,19 +2979,19 @@
         <v>8</v>
       </c>
       <c r="D105">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F105">
         <v>2019</v>
       </c>
       <c r="G105">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H105">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
@@ -3005,19 +3005,19 @@
         <v>8</v>
       </c>
       <c r="D106">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F106">
         <v>2019</v>
       </c>
       <c r="G106">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
@@ -3031,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="D107">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E107">
         <v>5</v>
@@ -3040,10 +3040,10 @@
         <v>2019</v>
       </c>
       <c r="G107">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H107">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
@@ -3057,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E108">
         <v>5</v>
@@ -3066,10 +3066,10 @@
         <v>2019</v>
       </c>
       <c r="G108">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H108">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
@@ -3083,7 +3083,7 @@
         <v>8</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E109">
         <v>5</v>
@@ -3092,10 +3092,10 @@
         <v>2019</v>
       </c>
       <c r="G109">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H109">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -3109,19 +3109,19 @@
         <v>8</v>
       </c>
       <c r="D110">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E110">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F110">
         <v>2019</v>
       </c>
       <c r="G110">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H110">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
@@ -3135,19 +3135,19 @@
         <v>8</v>
       </c>
       <c r="D111">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F111">
         <v>2019</v>
       </c>
       <c r="G111">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H111">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
@@ -3161,7 +3161,7 @@
         <v>8</v>
       </c>
       <c r="D112">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E112">
         <v>4</v>
@@ -3170,10 +3170,10 @@
         <v>2019</v>
       </c>
       <c r="G112">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H112">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -3187,7 +3187,7 @@
         <v>8</v>
       </c>
       <c r="D113">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -3199,7 +3199,7 @@
         <v>36</v>
       </c>
       <c r="H113">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
@@ -3213,19 +3213,19 @@
         <v>8</v>
       </c>
       <c r="D114">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F114">
         <v>2019</v>
       </c>
       <c r="G114">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H114">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
@@ -3239,19 +3239,19 @@
         <v>8</v>
       </c>
       <c r="D115">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F115">
         <v>2019</v>
       </c>
       <c r="G115">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H115">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
@@ -3265,7 +3265,7 @@
         <v>8</v>
       </c>
       <c r="D116">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -3274,7 +3274,7 @@
         <v>2019</v>
       </c>
       <c r="G116">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H116">
         <v>46</v>
@@ -3291,7 +3291,7 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E117">
         <v>3</v>
@@ -3303,7 +3303,7 @@
         <v>37</v>
       </c>
       <c r="H117">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -3317,16 +3317,16 @@
         <v>8</v>
       </c>
       <c r="D118">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F118">
         <v>2019</v>
       </c>
       <c r="G118">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H118">
         <v>46</v>
@@ -3343,19 +3343,19 @@
         <v>8</v>
       </c>
       <c r="D119">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E119">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F119">
         <v>2019</v>
       </c>
       <c r="G119">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H119">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -3369,7 +3369,7 @@
         <v>8</v>
       </c>
       <c r="D120">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -3378,10 +3378,10 @@
         <v>2019</v>
       </c>
       <c r="G120">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H120">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -3395,7 +3395,7 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -3404,7 +3404,7 @@
         <v>2019</v>
       </c>
       <c r="G121">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H121">
         <v>44</v>
@@ -3421,7 +3421,7 @@
         <v>8</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E122">
         <v>2</v>
@@ -3430,7 +3430,7 @@
         <v>2019</v>
       </c>
       <c r="G122">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H122">
         <v>44</v>
@@ -3447,19 +3447,19 @@
         <v>8</v>
       </c>
       <c r="D123">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F123">
         <v>2019</v>
       </c>
       <c r="G123">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H123">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
@@ -3473,19 +3473,19 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F124">
         <v>2019</v>
       </c>
       <c r="G124">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H124">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -3499,7 +3499,7 @@
         <v>8</v>
       </c>
       <c r="D125">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -3508,10 +3508,10 @@
         <v>2019</v>
       </c>
       <c r="G125">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H125">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
@@ -3525,7 +3525,7 @@
         <v>8</v>
       </c>
       <c r="D126">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -3534,10 +3534,10 @@
         <v>2019</v>
       </c>
       <c r="G126">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H126">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
@@ -3551,19 +3551,19 @@
         <v>8</v>
       </c>
       <c r="D127">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E127">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F127">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G127">
         <v>40</v>
       </c>
       <c r="H127">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -3577,19 +3577,19 @@
         <v>8</v>
       </c>
       <c r="D128">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="E128">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F128">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G128">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H128">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -3603,7 +3603,7 @@
         <v>8</v>
       </c>
       <c r="D129">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E129">
         <v>12</v>
@@ -3612,10 +3612,10 @@
         <v>2018</v>
       </c>
       <c r="G129">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H129">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -3629,7 +3629,7 @@
         <v>8</v>
       </c>
       <c r="D130">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E130">
         <v>12</v>
@@ -3638,10 +3638,10 @@
         <v>2018</v>
       </c>
       <c r="G130">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -3655,19 +3655,19 @@
         <v>8</v>
       </c>
       <c r="D131">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="E131">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131">
         <v>2018</v>
       </c>
       <c r="G131">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
@@ -3681,19 +3681,19 @@
         <v>8</v>
       </c>
       <c r="D132">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E132">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132">
         <v>2018</v>
       </c>
       <c r="G132">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H132">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
@@ -3707,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="D133">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="E133">
         <v>11</v>
@@ -3719,7 +3719,7 @@
         <v>41</v>
       </c>
       <c r="H133">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -3733,7 +3733,7 @@
         <v>8</v>
       </c>
       <c r="D134">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="E134">
         <v>11</v>
@@ -3742,10 +3742,10 @@
         <v>2018</v>
       </c>
       <c r="G134">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -3759,19 +3759,19 @@
         <v>8</v>
       </c>
       <c r="D135">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E135">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135">
         <v>2018</v>
       </c>
       <c r="G135">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H135">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -3785,19 +3785,19 @@
         <v>8</v>
       </c>
       <c r="D136">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E136">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136">
         <v>2018</v>
       </c>
       <c r="G136">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H136">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -3811,7 +3811,7 @@
         <v>8</v>
       </c>
       <c r="D137">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E137">
         <v>10</v>
@@ -3820,10 +3820,10 @@
         <v>2018</v>
       </c>
       <c r="G137">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H137">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
@@ -3837,7 +3837,7 @@
         <v>8</v>
       </c>
       <c r="D138">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="E138">
         <v>10</v>
@@ -3846,10 +3846,10 @@
         <v>2018</v>
       </c>
       <c r="G138">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H138">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
@@ -3863,7 +3863,7 @@
         <v>8</v>
       </c>
       <c r="D139">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="E139">
         <v>10</v>
@@ -3872,10 +3872,10 @@
         <v>2018</v>
       </c>
       <c r="G139">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H139">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
@@ -3889,19 +3889,19 @@
         <v>8</v>
       </c>
       <c r="D140">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="E140">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F140">
         <v>2018</v>
       </c>
       <c r="G140">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H140">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -3915,19 +3915,19 @@
         <v>8</v>
       </c>
       <c r="D141">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E141">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F141">
         <v>2018</v>
       </c>
       <c r="G141">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H141">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -3941,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="D142">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="E142">
         <v>9</v>
@@ -3950,10 +3950,10 @@
         <v>2018</v>
       </c>
       <c r="G142">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H142">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -3967,7 +3967,7 @@
         <v>8</v>
       </c>
       <c r="D143">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E143">
         <v>9</v>
@@ -3976,10 +3976,10 @@
         <v>2018</v>
       </c>
       <c r="G143">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H143">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -3993,19 +3993,19 @@
         <v>8</v>
       </c>
       <c r="D144">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E144">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F144">
         <v>2018</v>
       </c>
       <c r="G144">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H144">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
@@ -4019,19 +4019,19 @@
         <v>8</v>
       </c>
       <c r="D145">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E145">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F145">
         <v>2018</v>
       </c>
       <c r="G145">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H145">
-        <v>37</v>
+        <v>44</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
@@ -4045,7 +4045,7 @@
         <v>8</v>
       </c>
       <c r="D146">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E146">
         <v>8</v>
@@ -4054,10 +4054,10 @@
         <v>2018</v>
       </c>
       <c r="G146">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H146">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
@@ -4071,7 +4071,7 @@
         <v>8</v>
       </c>
       <c r="D147">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E147">
         <v>8</v>
@@ -4080,10 +4080,10 @@
         <v>2018</v>
       </c>
       <c r="G147">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H147">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
@@ -4097,7 +4097,7 @@
         <v>8</v>
       </c>
       <c r="D148">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E148">
         <v>8</v>
@@ -4123,19 +4123,19 @@
         <v>8</v>
       </c>
       <c r="D149">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E149">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F149">
         <v>2018</v>
       </c>
       <c r="G149">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H149">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -4149,19 +4149,19 @@
         <v>8</v>
       </c>
       <c r="D150">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E150">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F150">
         <v>2018</v>
       </c>
       <c r="G150">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H150">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
         <v>8</v>
       </c>
       <c r="D151">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E151">
         <v>7</v>
@@ -4184,10 +4184,10 @@
         <v>2018</v>
       </c>
       <c r="G151">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H151">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
@@ -4201,7 +4201,7 @@
         <v>8</v>
       </c>
       <c r="D152">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E152">
         <v>7</v>
@@ -4210,10 +4210,10 @@
         <v>2018</v>
       </c>
       <c r="G152">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H152">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
@@ -4227,19 +4227,19 @@
         <v>8</v>
       </c>
       <c r="D153">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E153">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F153">
         <v>2018</v>
       </c>
       <c r="G153">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H153">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
@@ -4253,19 +4253,19 @@
         <v>8</v>
       </c>
       <c r="D154">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E154">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F154">
         <v>2018</v>
       </c>
       <c r="G154">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H154">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -4279,7 +4279,7 @@
         <v>8</v>
       </c>
       <c r="D155">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="E155">
         <v>6</v>
@@ -4288,10 +4288,10 @@
         <v>2018</v>
       </c>
       <c r="G155">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H155">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -4305,7 +4305,7 @@
         <v>8</v>
       </c>
       <c r="D156">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E156">
         <v>6</v>
@@ -4317,7 +4317,7 @@
         <v>58</v>
       </c>
       <c r="H156">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
@@ -4331,7 +4331,7 @@
         <v>8</v>
       </c>
       <c r="D157">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E157">
         <v>6</v>
@@ -4340,10 +4340,10 @@
         <v>2018</v>
       </c>
       <c r="G157">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H157">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
@@ -4357,16 +4357,16 @@
         <v>8</v>
       </c>
       <c r="D158">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E158">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F158">
         <v>2018</v>
       </c>
       <c r="G158">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H158">
         <v>26</v>
@@ -4383,19 +4383,19 @@
         <v>8</v>
       </c>
       <c r="D159">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E159">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F159">
         <v>2018</v>
       </c>
       <c r="G159">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H159">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
@@ -4409,7 +4409,7 @@
         <v>8</v>
       </c>
       <c r="D160">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E160">
         <v>5</v>
@@ -4418,10 +4418,10 @@
         <v>2018</v>
       </c>
       <c r="G160">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H160">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -4435,7 +4435,7 @@
         <v>8</v>
       </c>
       <c r="D161">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E161">
         <v>5</v>
@@ -4444,10 +4444,10 @@
         <v>2018</v>
       </c>
       <c r="G161">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H161">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -4461,19 +4461,19 @@
         <v>8</v>
       </c>
       <c r="D162">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F162">
         <v>2018</v>
       </c>
       <c r="G162">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H162">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -4487,10 +4487,10 @@
         <v>8</v>
       </c>
       <c r="D163">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="E163">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F163">
         <v>2018</v>
@@ -4513,7 +4513,7 @@
         <v>8</v>
       </c>
       <c r="D164">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="E164">
         <v>4</v>
@@ -4522,10 +4522,10 @@
         <v>2018</v>
       </c>
       <c r="G164">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H164">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
@@ -4539,7 +4539,7 @@
         <v>8</v>
       </c>
       <c r="D165">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E165">
         <v>4</v>
@@ -4548,10 +4548,10 @@
         <v>2018</v>
       </c>
       <c r="G165">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H165">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
@@ -4565,19 +4565,19 @@
         <v>8</v>
       </c>
       <c r="D166">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E166">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F166">
         <v>2018</v>
       </c>
       <c r="G166">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H166">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
@@ -4591,19 +4591,19 @@
         <v>8</v>
       </c>
       <c r="D167">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="E167">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F167">
         <v>2018</v>
       </c>
       <c r="G167">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H167">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
         <v>8</v>
       </c>
       <c r="D168">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E168">
         <v>3</v>
@@ -4626,10 +4626,10 @@
         <v>2018</v>
       </c>
       <c r="G168">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="H168">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
@@ -4643,19 +4643,19 @@
         <v>8</v>
       </c>
       <c r="D169">
+        <v>23</v>
+      </c>
+      <c r="E169">
         <v>3</v>
       </c>
-      <c r="E169">
-        <v>4</v>
-      </c>
       <c r="F169">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G169">
+        <v>54</v>
+      </c>
+      <c r="H169">
         <v>19</v>
-      </c>
-      <c r="H169">
-        <v>72</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
@@ -4669,19 +4669,19 @@
         <v>8</v>
       </c>
       <c r="D170">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E170">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F170">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="G170">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="H170">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
@@ -4695,7 +4695,7 @@
         <v>8</v>
       </c>
       <c r="D171">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E171">
         <v>4</v>
@@ -4704,10 +4704,10 @@
         <v>2020</v>
       </c>
       <c r="G171">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H171">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
@@ -4721,7 +4721,7 @@
         <v>8</v>
       </c>
       <c r="D172">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E172">
         <v>4</v>
@@ -4730,10 +4730,10 @@
         <v>2020</v>
       </c>
       <c r="G172">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H172">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
@@ -4747,7 +4747,7 @@
         <v>8</v>
       </c>
       <c r="D173">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E173">
         <v>4</v>
@@ -4759,7 +4759,7 @@
         <v>25</v>
       </c>
       <c r="H173">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
@@ -4773,19 +4773,19 @@
         <v>8</v>
       </c>
       <c r="D174">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E174">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F174">
         <v>2020</v>
       </c>
       <c r="G174">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H174">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -4799,19 +4799,19 @@
         <v>8</v>
       </c>
       <c r="D175">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="E175">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F175">
         <v>2020</v>
       </c>
       <c r="G175">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H175">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
@@ -4825,7 +4825,7 @@
         <v>8</v>
       </c>
       <c r="D176">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E176">
         <v>5</v>
@@ -4834,10 +4834,10 @@
         <v>2020</v>
       </c>
       <c r="G176">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H176">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
@@ -4851,7 +4851,7 @@
         <v>8</v>
       </c>
       <c r="D177">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E177">
         <v>5</v>
@@ -4860,56 +4860,62 @@
         <v>2020</v>
       </c>
       <c r="G177">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H177">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C178" t="s">
         <v>8</v>
       </c>
+      <c r="D178">
+        <v>22</v>
+      </c>
       <c r="E178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F178">
         <v>2020</v>
       </c>
       <c r="G178">
-        <v>14.3</v>
+        <v>27</v>
       </c>
       <c r="H178">
-        <v>75.099999999999994</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C179" t="s">
         <v>8</v>
       </c>
+      <c r="D179">
+        <v>28</v>
+      </c>
       <c r="E179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F179">
         <v>2020</v>
       </c>
       <c r="G179">
-        <v>13.2</v>
+        <v>29</v>
       </c>
       <c r="H179">
-        <v>72.8</v>
+        <v>60</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
@@ -4923,16 +4929,235 @@
         <v>8</v>
       </c>
       <c r="E180">
+        <v>4</v>
+      </c>
+      <c r="F180">
+        <v>2020</v>
+      </c>
+      <c r="G180">
+        <v>14.3</v>
+      </c>
+      <c r="H180">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181">
+        <v>4</v>
+      </c>
+      <c r="F181">
+        <v>2020</v>
+      </c>
+      <c r="G181">
+        <v>13.2</v>
+      </c>
+      <c r="H181">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>10</v>
+      </c>
+      <c r="B182" t="s">
+        <v>15</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182">
         <v>5</v>
       </c>
-      <c r="F180">
-        <v>2020</v>
-      </c>
-      <c r="G180">
+      <c r="F182">
+        <v>2020</v>
+      </c>
+      <c r="G182">
         <v>18</v>
       </c>
-      <c r="H180">
+      <c r="H182">
         <v>73.8</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183">
+        <v>5</v>
+      </c>
+      <c r="E183">
+        <v>6</v>
+      </c>
+      <c r="F183">
+        <v>2020</v>
+      </c>
+      <c r="G183">
+        <v>27</v>
+      </c>
+      <c r="H183">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184">
+        <v>12</v>
+      </c>
+      <c r="E184">
+        <v>6</v>
+      </c>
+      <c r="F184">
+        <v>2020</v>
+      </c>
+      <c r="G184">
+        <v>24</v>
+      </c>
+      <c r="H184">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185">
+        <v>19</v>
+      </c>
+      <c r="E185">
+        <v>6</v>
+      </c>
+      <c r="F185">
+        <v>2020</v>
+      </c>
+      <c r="G185">
+        <v>24</v>
+      </c>
+      <c r="H185">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186">
+        <v>26</v>
+      </c>
+      <c r="E186">
+        <v>6</v>
+      </c>
+      <c r="F186">
+        <v>2020</v>
+      </c>
+      <c r="G186">
+        <v>27</v>
+      </c>
+      <c r="H186">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>15</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187">
+        <v>5</v>
+      </c>
+      <c r="F187">
+        <v>2020</v>
+      </c>
+      <c r="G187">
+        <v>12.7</v>
+      </c>
+      <c r="H187">
+        <v>73.599999999999994</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>10</v>
+      </c>
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188">
+        <v>6</v>
+      </c>
+      <c r="F188">
+        <v>2020</v>
+      </c>
+      <c r="G188">
+        <v>13.6</v>
+      </c>
+      <c r="H188">
+        <v>75.599999999999994</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>10</v>
+      </c>
+      <c r="B189" t="s">
+        <v>15</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189">
+        <v>6</v>
+      </c>
+      <c r="F189">
+        <v>2020</v>
+      </c>
+      <c r="G189">
+        <v>12.5</v>
+      </c>
+      <c r="H189">
+        <v>76.599999999999994</v>
       </c>
     </row>
   </sheetData>
@@ -4942,15 +5167,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -4972,8 +5197,14 @@
       <c r="G1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4996,7 +5227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -5017,6 +5248,1001 @@
       </c>
       <c r="G3">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+      <c r="G4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>2020</v>
+      </c>
+      <c r="G5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+      <c r="G6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>2020</v>
+      </c>
+      <c r="G7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>28</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>2020</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>2020</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>2020</v>
+      </c>
+      <c r="G10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>2020</v>
+      </c>
+      <c r="G11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>2020</v>
+      </c>
+      <c r="G12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>2020</v>
+      </c>
+      <c r="G13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>2020</v>
+      </c>
+      <c r="G14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>2020</v>
+      </c>
+      <c r="G15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2020</v>
+      </c>
+      <c r="G16">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>2020</v>
+      </c>
+      <c r="G17">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>2857</v>
+      </c>
+      <c r="I17">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>2020</v>
+      </c>
+      <c r="G18">
+        <v>22</v>
+      </c>
+      <c r="H18">
+        <v>3223</v>
+      </c>
+      <c r="I18">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>2020</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>3547</v>
+      </c>
+      <c r="I19">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>2020</v>
+      </c>
+      <c r="G20">
+        <v>20</v>
+      </c>
+      <c r="H20">
+        <v>3451</v>
+      </c>
+      <c r="I20">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21">
+        <v>28</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>2020</v>
+      </c>
+      <c r="G21">
+        <v>21</v>
+      </c>
+      <c r="H21">
+        <v>3327</v>
+      </c>
+      <c r="I21">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2020</v>
+      </c>
+      <c r="G22">
+        <v>18</v>
+      </c>
+      <c r="H22">
+        <v>4026</v>
+      </c>
+      <c r="I22">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>2020</v>
+      </c>
+      <c r="G23">
+        <v>19</v>
+      </c>
+      <c r="H23">
+        <v>3709</v>
+      </c>
+      <c r="I23">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>2020</v>
+      </c>
+      <c r="G24">
+        <v>24</v>
+      </c>
+      <c r="H24">
+        <v>2904</v>
+      </c>
+      <c r="I24">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>31</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>2020</v>
+      </c>
+      <c r="G25">
+        <v>19</v>
+      </c>
+      <c r="H25">
+        <v>3722</v>
+      </c>
+      <c r="I25">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>2020</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26">
+        <v>3596</v>
+      </c>
+      <c r="I26">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>2020</v>
+      </c>
+      <c r="G27">
+        <v>19</v>
+      </c>
+      <c r="H27">
+        <v>3726</v>
+      </c>
+      <c r="I27">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>2020</v>
+      </c>
+      <c r="G28">
+        <v>18</v>
+      </c>
+      <c r="H28">
+        <v>3861</v>
+      </c>
+      <c r="I28">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>2020</v>
+      </c>
+      <c r="G29">
+        <v>18</v>
+      </c>
+      <c r="H29">
+        <v>3893</v>
+      </c>
+      <c r="I29">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <v>2019</v>
+      </c>
+      <c r="G30">
+        <v>19</v>
+      </c>
+      <c r="H30">
+        <v>3652</v>
+      </c>
+      <c r="I30">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <v>2019</v>
+      </c>
+      <c r="G31">
+        <v>19</v>
+      </c>
+      <c r="H31">
+        <v>3621</v>
+      </c>
+      <c r="I31">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="E32">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>2019</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32">
+        <v>3483</v>
+      </c>
+      <c r="I32">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33">
+        <v>12</v>
+      </c>
+      <c r="F33">
+        <v>2019</v>
+      </c>
+      <c r="G33">
+        <v>21</v>
+      </c>
+      <c r="H33">
+        <v>3414</v>
+      </c>
+      <c r="I33">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>2019</v>
+      </c>
+      <c r="G34">
+        <v>22</v>
+      </c>
+      <c r="H34">
+        <v>3154</v>
+      </c>
+      <c r="I34">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>22</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>2019</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
+      <c r="H35">
+        <v>3408</v>
+      </c>
+      <c r="I35">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36">
+        <v>16</v>
+      </c>
+      <c r="E36">
+        <v>11</v>
+      </c>
+      <c r="F36">
+        <v>2019</v>
+      </c>
+      <c r="G36">
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <v>3056</v>
+      </c>
+      <c r="I36">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37">
+        <v>11</v>
+      </c>
+      <c r="F37">
+        <v>2019</v>
+      </c>
+      <c r="G37">
+        <v>24</v>
+      </c>
+      <c r="H37">
+        <v>2899</v>
+      </c>
+      <c r="I37">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>30</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>2019</v>
+      </c>
+      <c r="G38">
+        <v>23</v>
+      </c>
+      <c r="H38">
+        <v>3125</v>
+      </c>
+      <c r="I38">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+      <c r="E39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>2019</v>
+      </c>
+      <c r="G39">
+        <v>23</v>
+      </c>
+      <c r="H39">
+        <v>4351</v>
+      </c>
+      <c r="I39">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>18</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>2019</v>
+      </c>
+      <c r="G40">
+        <v>17</v>
+      </c>
+      <c r="H40">
+        <v>4191</v>
+      </c>
+      <c r="I40">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
